--- a/biology/Zoologie/Colibri_de_Delalande/Colibri_de_Delalande.xlsx
+++ b/biology/Zoologie/Colibri_de_Delalande/Colibri_de_Delalande.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Stephanoxis lalandi
 Le Colibri de Delalande (Stephanoxis lalandi) est une espèce de colibris (famille des Trochilidae) endémique du Brésil.
@@ -512,7 +524,9 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">À la suite des travaux de Cavarzere et al. (2014), l'espèce originale Stephanoxis lalandi est divisée en deux. La sous-espèce loddigesii devient le Colibri à huppe bleue (Stephanoxis loddigesii), tandis que la sous-espèce lalandi garde le nom normalisé de Colibri de Delalande.
 </t>
@@ -543,7 +557,9 @@
           <t>Habitats</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ses habitats sont les forêts tropicales et subtropicales humides de basses et hautes altitudes, la végétation de broussailles humides mais aussi sur les anciennes forêts lourdement dégradées.
 </t>
@@ -574,9 +590,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce vit uniquement dans l'est du Brésil, du sud-est de Minas Gerais et de Espírito Santo au nord-est de São Paulo et de Rio de Janeiro[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce vit uniquement dans l'est du Brésil, du sud-est de Minas Gerais et de Espírito Santo au nord-est de São Paulo et de Rio de Janeiro.
 </t>
         </is>
       </c>
